--- a/Codeforces/Book1.xlsx
+++ b/Codeforces/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Python312\DSA\Codeforces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C0DA2F-F00A-4A6B-AA64-83C835413269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A878A5CB-EC37-423F-944B-1B7252F0C89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t xml:space="preserve">QUESTION </t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t>remember it</t>
+  </si>
+  <si>
+    <t>B1. Reverse Card (Easy Version)</t>
+  </si>
+  <si>
+    <t>Maths Maths Maths : GCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiered </t>
+  </si>
+  <si>
+    <t>C. Kevin and Puzzle</t>
+  </si>
+  <si>
+    <t>Well u never did it so give it another try</t>
   </si>
 </sst>
 </file>
@@ -455,7 +470,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -560,7 +575,30 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Codeforces/Book1.xlsx
+++ b/Codeforces/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Python312\DSA\Codeforces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A878A5CB-EC37-423F-944B-1B7252F0C89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35B2FE1-A2C4-4EB0-865D-854B51D86F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t xml:space="preserve">QUESTION </t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Frequency Prefex Sum array - </t>
   </si>
   <si>
+    <t>remember it</t>
+  </si>
+  <si>
     <t>C. Bewitching Stargazer</t>
   </si>
   <si>
@@ -52,15 +55,18 @@
     <t>Bitwise AND OR - Constraints traveling in reverse</t>
   </si>
   <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>revise it</t>
+  </si>
+  <si>
     <t>C. Trip to the Olympiad</t>
   </si>
   <si>
     <t>Bitwise XOR - Bit flipping, Code implementation</t>
   </si>
   <si>
-    <t>damn</t>
-  </si>
-  <si>
     <t>fuck this</t>
   </si>
   <si>
@@ -85,12 +91,6 @@
     <t>good</t>
   </si>
   <si>
-    <t>revise it</t>
-  </si>
-  <si>
-    <t>remember it</t>
-  </si>
-  <si>
     <t>B1. Reverse Card (Easy Version)</t>
   </si>
   <si>
@@ -103,7 +103,13 @@
     <t>C. Kevin and Puzzle</t>
   </si>
   <si>
-    <t>Well u never did it so give it another try</t>
+    <t>I even know the topic but u never did it so give it another try</t>
+  </si>
+  <si>
+    <t>C. Limited Repainting</t>
+  </si>
+  <si>
+    <t>Implementation, Binary Search - min(max)-----remember it</t>
   </si>
 </sst>
 </file>
@@ -159,9 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -470,18 +479,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.08984375" customWidth="1"/>
-    <col min="2" max="2" width="82.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -492,7 +501,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -500,82 +510,82 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -586,10 +596,10 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -597,8 +607,15 @@
         <v>27</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Codeforces/Book1.xlsx
+++ b/Codeforces/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Python312\DSA\Codeforces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\DSA\Codeforces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35B2FE1-A2C4-4EB0-865D-854B51D86F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197442E8-82E9-4238-B1E2-44FC038E9BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t xml:space="preserve">QUESTION </t>
   </si>
@@ -110,13 +110,58 @@
   </si>
   <si>
     <t>Implementation, Binary Search - min(max)-----remember it</t>
+  </si>
+  <si>
+    <t>B. Pleasant Pairs</t>
+  </si>
+  <si>
+    <t>Simple but u didn’t got it</t>
+  </si>
+  <si>
+    <t>C. Dolce Vita</t>
+  </si>
+  <si>
+    <t>don’t know whts wrong till now</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>B1. Palindrome Game (easy version)</t>
+  </si>
+  <si>
+    <t>a good one, don’t think much, u did it wrong</t>
+  </si>
+  <si>
+    <t>D. Same Differences</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>B. AND 0, Sum Big</t>
+  </si>
+  <si>
+    <t>again easy one, don’t think tooo much man, but ok this was a good one</t>
+  </si>
+  <si>
+    <t>F. Igor and Mountain</t>
+  </si>
+  <si>
+    <t>You wrote the code, got tle, never understood the editorial</t>
+  </si>
+  <si>
+    <t>Irritated</t>
+  </si>
+  <si>
+    <t>p. visit it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +181,14 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -174,6 +227,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +533,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,16 +547,19 @@
     <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -513,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -521,7 +578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -529,7 +586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -543,7 +600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -557,7 +614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -571,7 +628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -585,7 +642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -599,7 +656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -607,15 +664,76 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
+      <c r="E12">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>